--- a/result/Навчання з питань охорони праці (ІТП).xlsx
+++ b/result/Навчання з питань охорони праці (ІТП).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,372 +25,373 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Визначте послідовність дій у разі виникнення пожежі (ознак горіння)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Якщо пожежа виникла на підприємстві, повідомити про неї керівника чи відповідну компетентну особу та (або) чергового по об’єкту
-Негайно повідомити по телефону про це пожежну охорону
-У разі необхідності викликати інші аварійно-рятувальні служби (медичну, газорятувальну тощо)
-</t>
-  </si>
-  <si>
-    <t>Негайно повідомити по телефону про це пожежну охорону</t>
-  </si>
-  <si>
-    <t>Назвіть найпоширенішу причину пожеж в електроустаткуванні?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коротке замикання
-Великі перехідні опори
-Перевантаження
-Розряди статистичної електрики
-</t>
-  </si>
-  <si>
-    <t>Коротке замикання</t>
-  </si>
-  <si>
-    <t>Діапазон температур застосування брометилового вогнегасника:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">від – 60 до + 60 ° C
-від – 30 до + 60 ° C
-від – 20 до + 30 ° C
-від – 50 до + 50 ° C
-</t>
-  </si>
-  <si>
-    <t>від – 60 до + 60 ° C</t>
-  </si>
-  <si>
-    <t>Якою має бути відстань від приладів електроопалення до горючих матеріалів і будівельних конструкцій?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не менше 0,15 м
-Не менше 0,25 м
-Не менше 0,30 м
-Не менше 0,50 м
-</t>
-  </si>
-  <si>
-    <t>Не менше 0,25 м</t>
-  </si>
-  <si>
-    <t>Якою має бути висота від рівня підлоги до нижнього торця вогнегасника в разі навішування останнього на вертикальні конструкції?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не більше 1 м
-Не більше 1,5 м
-Не більше 1,8 м
-Не більше 2 м
-</t>
-  </si>
-  <si>
-    <t>Не більше 1,5 м</t>
-  </si>
-  <si>
-    <t>Чи дозволяється зберігання балонів з газами у підвальних приміщеннях?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дозволяється, якщо підвальне приміщення має самостійний вихід назовні
-Дозволяється, якщо є письмовий дозвіл адміністрації
-Дозволяється, якщо перекриття між підвальним приміщенням і першим поверхом виконано з негорючих матеріалів
-Не дозволяється
-</t>
-  </si>
-  <si>
-    <t>Не дозволяється</t>
-  </si>
-  <si>
-    <t>На протязі якого часу після закінчення вогневих робіт треба забезпечити перевірку місця проведення цих робіт?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 год.
-2 год.
-3 год.
-</t>
-  </si>
-  <si>
-    <t>2 год.</t>
-  </si>
-  <si>
-    <t>До якого класу (що вказується на вогнегасниках) відносяться пожежі твердих речовин, горіння яких супроводжується тлінням?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">До класу «В»
-До класу «С»
-До класу «Е»
-До класу «А»
-</t>
-  </si>
-  <si>
-    <t>До класу «А»</t>
-  </si>
-  <si>
-    <t>До пожежної установки входить яка кількість вогнегасників:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 пінно-хімічні
-2 брометилові
-2 пінно-хімічні ОХП-10 та 2 порошкові ОП-1
-всі можливі вогнегасники, що є в господарстві
-</t>
-  </si>
-  <si>
-    <t>2 пінно-хімічні ОХП-10 та 2 порошкові ОП-1</t>
-  </si>
-  <si>
-    <t>Чи можна застосовувати електронагрівальні прилади у складських приміщеннях, де зберігаються горючі матеріали?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Можна, на відстані не більше 2 м. від вогнегасників
-Можна, на відстані не більше 1 м. від горючих матеріалів
-Можна, якщо ці прилади закритого виконання
-Не можна
-</t>
-  </si>
-  <si>
-    <t>Не можна</t>
-  </si>
-  <si>
-    <t>На якій відстані від пожежного гідранту забороняється стоянка транспорту?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не менше 10 м
-Менше 15 м
-Менше 5 м
-Менше 12 м
-</t>
-  </si>
-  <si>
-    <t>Менше 5 м</t>
-  </si>
-  <si>
-    <t>Як часто потрібно розгортати та згортати пожежні рукави, які складені та приєднані до кранів:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">раз на 1 рік
-кожен квартал
-не частіше одного разу на рік
-не рідше одного разу на півроку
-</t>
-  </si>
-  <si>
-    <t>не рідше одного разу на півроку</t>
-  </si>
-  <si>
-    <t>Як часто треба перевіряти пожежні крани на працездатність шляхом пуску води?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не рідше одного разу на рік
-Не рідше одного разу на 6 місяців
-Щоквартально
-Не рідше одного разу в два роки
-</t>
-  </si>
-  <si>
-    <t>Не рідше одного разу на 6 місяців</t>
-  </si>
-  <si>
-    <t>Для чого призначений піногенератор:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">для отримання хімічної піни
-для гасіння пожеж
-для отримання повітряно-механічної піни
-для зберігання порошку
-</t>
-  </si>
-  <si>
-    <t>для отримання хімічної піни</t>
-  </si>
-  <si>
-    <t>Яка відстань допускається від газових приладів до меблів та інших виробів (предметів) з горючих матеріалів?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не ближче 1 м
-Не ближче 0,2 м
-Не ближче 0,5 м
-Не ближче 0,3 м
-</t>
-  </si>
-  <si>
-    <t>Не ближче 0,2 м</t>
-  </si>
-  <si>
-    <t>Яка допустима температура зовнішньої поверхні електроопалювальних приладів у найбільш нагрітому місці в нормальному режимі роботи?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 ° C
-75 ° C
-85 ° C
-100 ° C
-</t>
-  </si>
-  <si>
-    <t>100 ° C</t>
-  </si>
-  <si>
-    <t>Що слід вважати пожежею?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Неконтрольоване горіння поза межами спеціального вогнища
-Високотемпературний теплообмінний процес
-Стихійне лихо
-Будь які випадки горіння
-</t>
-  </si>
-  <si>
-    <t>Неконтрольоване горіння поза межами спеціального вогнища</t>
-  </si>
-  <si>
-    <t>Як часто треба проводити повторний протипожежний інструктаж?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Раз у квартал
-Не рідше одного разу в три роки
-Не рідше одного разу у два роки
-Не рідше одного разу в рік
-Раз у півроку
-</t>
-  </si>
-  <si>
-    <t>Не рідше одного разу в рік</t>
-  </si>
-  <si>
-    <t>Де і як має зберігатися спецодяг працюючих з лаками, фарбами та іншими легкозаймистими горючими рідинами?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Складеним у побутових приміщеннях
-В розвішаному вигляді в металевих шафах, встановлених у спеціально відведених для цієї мети приміщеннях
-У приміщенні пожежного посту на об’єкті
-Здаватися на спеціальний склад
-</t>
-  </si>
-  <si>
-    <t>В розвішаному вигляді в металевих шафах, встановлених у спеціально відведених для цієї мети приміщеннях</t>
-  </si>
-  <si>
-    <t>Чи дозволяється застосовування електричних опалювальних приладів у приміщеннях категорій за вибухонебезпекою А та Б?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не дозволяється
-Дозволяється, якщо ці прилади закритого виконання
-Дозволяється, якщо ці прилади промислового виробництва, а не саморобні
-Дозволяється в будь-якому випадку
-</t>
-  </si>
-  <si>
-    <t>Чи дозволяється відігрівати замерзлі труби паяльними лампами та іншими засобами із застосуванням відкритого вогню?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Забороняється
-Дозволяється, якщо є наказ адміністрації
-Дозволяється при наявності систем автоматичного виявлення та гасіння пожежі
-Дозволяється, по узгодженню з ДПД
-</t>
-  </si>
-  <si>
-    <t>Забороняється</t>
-  </si>
-  <si>
-    <t>Чи можна використовувати пожежне обладнання, інвентар та інструмент для господарських, виробничих та інших потреб, не пов’язаних з пожежогасінням або навчанням протипожежних формувань ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не можна
-Можна, якщо є відповідний наказ адміністрації
-Можна
-</t>
-  </si>
-  <si>
-    <t>Можна застосувати у будівництві у будівництві матеріали та речовини, на які не має даних щодо пожежної безпеки?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Можна
-Не можна
-Можна, при наявності пожежної сигналізації
-Можна, по узгодженню з адміністрацією
-</t>
-  </si>
-  <si>
-    <t>При якій максимальній кількості людей, що одночасно перебувають в приміщенні, двері з останнього можна влаштовувати з відчиненням усередину?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не більше 30 осіб
-Не більше 25 осіб
-Не більше 15 осіб
-</t>
-  </si>
-  <si>
-    <t>Не більше 15 осіб</t>
-  </si>
-  <si>
-    <t>Як часто треба розгортати та згортати наново пожежні рукава внутрішніх пожежних кранів?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не рідше одного разу на 6 місяців
-Не рідше одного разу на 1 рік
-Не рідше одного разу на 2 роки
-</t>
-  </si>
-  <si>
-    <t>Чи можна прибирати приміщення і прати одяг із застосуванням бензину, гасу та інших легкозаймистих та горючих рідин?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Можна, при наявності вогнегасників
-Не можна
-Можна, якщо є дозвіл адміністрації
-Можна, по узгодженню з пожежною безпекою
-</t>
-  </si>
-  <si>
-    <t>Чи можна використовувати звичайні ліфти та підйомники для евакуації людей під час пожежі?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не можна
-Можна, попередив при цьому диспетчера
-Можна, якщо огороджуючи конструкції ліфтових шахт виконані із негорючих матеріалів
-Можна, якщо ліфтові шахти відкриті
-</t>
-  </si>
-  <si>
-    <t>Дайте визначення „пожежі”:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">контрольоване горіння поза спеціальним вогнищем
-активне окислення органічних та синтетичних сполук
-неконтрольоване горіння поза спеціальним вогнищем, що розповсюджується у просторі і часі
-стан об’єкта, за якого з регламентованою імовірністю є можливість загорання
-</t>
-  </si>
-  <si>
-    <t>неконтрольоване горіння поза спеціальним вогнищем, що розповсюджується у просторі і часі</t>
-  </si>
-  <si>
-    <t>Яка найбільш поширена причина пожеж в Україні?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Підпали
-Необережне поводження з вогнем
-Тепловий прояв електричного струму
-Самозаймання
-</t>
-  </si>
-  <si>
-    <t>Необережне поводження з вогнем</t>
-  </si>
-  <si>
-    <t>На якій відстані від місця проведення зварювальних робіт треба розміщати ацетиленові генератори?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не ближче 5 м
-Не ближче 7 м
-Не ближче 10 м
-Не ближче 15 м
-</t>
-  </si>
-  <si>
-    <t>Не ближче 10 м</t>
+    <t>Після завершення розслідування нещасного випадку, професійного захворювання або аварії роботодавець складає акт за встановленою формою, один примірник якого він зобов'язаний видати потерпілому або іншій заінтересованій особі:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не пізніше трьох днів з моменту закінчення розслідування
+не пізніше трьох днів з моменту початку розслідування
+не пізніше трьох днів з моменту настання нещасного випадку
+</t>
+  </si>
+  <si>
+    <t>не пізніше трьох днів з моменту закінчення розслідування</t>
+  </si>
+  <si>
+    <t>Якщо міжнародним договором, згода на обов'язковість якого надана Верховною Радою України, встановлено інші норми, ніж ті, що передбачені законодавством України про охорону праці, застосовуються норми:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">законодавства України про охорону праці
+Закону України «Про охорону праці»
+міжнародного договору
+</t>
+  </si>
+  <si>
+    <t>міжнародного договору</t>
+  </si>
+  <si>
+    <t>З якого віку дозволяється приймати на роботу підлітків (роки)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14
+16
+17
+19
+</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Припис спеціаліста з охорони праці:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Може скасувати комісія з питань охорони праці
+Не може скасувати ніхто
+Може скасувати лише роботодавець
+</t>
+  </si>
+  <si>
+    <t>Може скасувати лише роботодавець</t>
+  </si>
+  <si>
+    <t>Cеціальне розслідування нещасних випадків, що спричинили тяжкі наслідки, у тому числі з можливою інвалідністю потерпілого, проводиться за рішенням:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розслідування та облік нещасних випадків, що сталися з працівниками під час прямування на роботу чи з роботи пішки, на громадському, власному або іншому транспортному засобі, що не належить підприємству і не використовується в інтересах підприємства, проводяться згідно з:
+керівника підприємства
+керівника робочого органу виконавчої дирекції Фонду соціального страхування від нещасних випадків
+</t>
+  </si>
+  <si>
+    <t>Розслідування та облік нещасних випадків, що сталися з працівниками під час прямування на роботу чи з роботи пішки, на громадському, власному або іншому транспортному засобі, що не належить підприємству і не використовується в інтересах підприємства, проводяться згідно з:</t>
+  </si>
+  <si>
+    <t>З якого дня після прийому на роботу починається термін страхування працівника від нещасного випадку на виробництві?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">з дня прийому заяви
+з дня, прийняття на роботу
+з третього дня
+з п’ятого
+з десятого
+</t>
+  </si>
+  <si>
+    <t>з дня, прийняття на роботу</t>
+  </si>
+  <si>
+    <t>Комісія зобов'язана скласти у акт проведення розслідування нещасного випадку акт за формою Н-1 про нещасний випадок, пов'язаний з виробництвом і передати їх роботодавцеві для затвердження:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протягом п’яти робочих днів з моменту утворення комісії
+Протягом трьох робочих днів з моменту завершення розслідування
+Протягом трьох робочих днів з моменту утворення комісії
+</t>
+  </si>
+  <si>
+    <t>Протягом трьох робочих днів з моменту утворення комісії</t>
+  </si>
+  <si>
+    <t>За якою формою складається акт про нещасний випадок невиробничого характеру?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н-1
+НТ
+П-5
+Н-2
+Н-5
+</t>
+  </si>
+  <si>
+    <t>НТ</t>
+  </si>
+  <si>
+    <t>Який проводиться інструктаж при проведенні робіт, на які оформляється наряд-допуск, дозвіл тощо?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цільовий
+Позаплановий
+Повторний
+</t>
+  </si>
+  <si>
+    <t>Цільовий</t>
+  </si>
+  <si>
+    <t>Коли проводиться попереднє спеціальне навчання і перевірка знань з питань охорони праці, обов’язковий медичний огляд?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При виконанні робіт на повітрі
+При виконанні робіт з підвищеною небезпекою
+При виконанні окремих робіт
+</t>
+  </si>
+  <si>
+    <t>При виконанні робіт з підвищеною небезпекою</t>
+  </si>
+  <si>
+    <t>За заявою працівника, якщо він вважає, що погіршення стану його здоров'я пов’язане з умовами праці:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роботодавець зобов'язаний забезпечити за рахунок працівника позачерговий медичний огляд працівників
+Роботодавець зобов'язаний забезпечити за свій рахунок позачерговий медичний огляд працівників
+Роботодавець не може забезпечити за свій рахунок позачерговий медичний огляд працівників
+</t>
+  </si>
+  <si>
+    <t>Роботодавець зобов'язаний забезпечити за свій рахунок позачерговий медичний огляд працівників</t>
+  </si>
+  <si>
+    <t>Працівник має право відмовитися від дорученої роботи, якщо створилася виробнича ситуація, небезпечна для його життя чи здоров'я або для людей, які його оточують, або для виробничого середовища чи довкілля. При цьому він зобов'язаний негайно повідомити про це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Службу Держпраці
+безпосереднього керівника або роботодавця
+Фонд соціального страхування від нещасних випадків
+</t>
+  </si>
+  <si>
+    <t>безпосереднього керівника або роботодавця</t>
+  </si>
+  <si>
+    <t>Основні завдання Фонду соціального страхування :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">акумуляцію страхових внесків
+контроль за використанням коштів
+запобігання нещасним випадкам, усунення загрози здоров'ю працівників, викликаної умовами праці
+</t>
+  </si>
+  <si>
+    <t>запобігання нещасним випадкам, усунення загрози здоров'ю працівників, викликаної умовами праці</t>
+  </si>
+  <si>
+    <t>Ознакою ушкодження артерії є:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яскраво-червоний колір крові, яка витікає з великою швидкістю пульсуючим струменем
+Темний колір крові, яка витікає з великою швидкістю, однак рівномірним струменем
+Кров"яне блювання з виділенням крові темного кольору, подібне до 'кавової гущі
+</t>
+  </si>
+  <si>
+    <t>Яскраво-червоний колір крові, яка витікає з великою швидкістю пульсуючим струменем</t>
+  </si>
+  <si>
+    <t>Роботи в газонебезпечних місцях (ємностях, бункерах, колодязях каналізації) проводиться за:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наряд-допуском
+Усним розпорядженням керівника
+Дозволом директора
+Дозволом профкому
+</t>
+  </si>
+  <si>
+    <t>Наряд-допуском</t>
+  </si>
+  <si>
+    <t>Який віковий ценз встановлений для осіб, які працюють в умовах підвищеної небезпеки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 років
+20 років
+16 років
+</t>
+  </si>
+  <si>
+    <t>18 років</t>
+  </si>
+  <si>
+    <t>Хто має бути головою комісії під час розслідування нещасного випадку на виробництві?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">начальник цеху
+головний інженер
+директор
+спеціаліст з охорони праці
+</t>
+  </si>
+  <si>
+    <t>спеціаліст з охорони праці</t>
+  </si>
+  <si>
+    <t>Який документ укладається профспілковим комітетом підприємства з роботодавцем з питань охорони праці та інших соціальних питань?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">трудовий договір
+колективний договір
+комплексні заходи
+положення
+інструкції
+</t>
+  </si>
+  <si>
+    <t>колективний договір</t>
+  </si>
+  <si>
+    <t>Який акт повинна скласти комісія з розслідування нещасного випадку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За формою Т – 2
+За формою Н – 1
+За формою Н - 2
+</t>
+  </si>
+  <si>
+    <t>За формою Н – 1</t>
+  </si>
+  <si>
+    <t>Який вид інструктажу з охорони праці проводить керівник робіт?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вступний
+на робочому місці
+повторний
+позаплановий
+цільовий
+</t>
+  </si>
+  <si>
+    <t>цільовий</t>
+  </si>
+  <si>
+    <t>Який орган утворює спеціальну комісію та організовує проведення спеціального розслідування групового нещасного випадку, під час якого загинуло п'ять і більше осіб або травмовано десять і більше осіб, проводиться спеціальною комісією, яка утворюється:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Держпраці
+Фондом соціального страхування від нещасних випадків
+Кабінетом Міністрів України
+</t>
+  </si>
+  <si>
+    <t>Держпраці</t>
+  </si>
+  <si>
+    <t>Припис спеціаліста з охорони праці скасовується:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">роботодавцем
+комісією з питань охорони праці
+головою профспілкового комітету
+юридичною службою підприємства, організації
+інспекцією Держпраці
+</t>
+  </si>
+  <si>
+    <t>роботодавцем</t>
+  </si>
+  <si>
+    <t>Розробка і здійснення санітарних та протиепідемічних заходів (СOVID-19) щодо умов праці стосовно рівнів чинників виробничого середовища; інформування санітарно-епідеміологічної служби щодо надзвичайних подій і ситуацій, що становлять небезпеку для здоров'я  - це обов'язки:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Підприємств, установ і організацій
+Санітарно-епідеміологічної служби
+Держпраці
+</t>
+  </si>
+  <si>
+    <t>Підприємств, установ і організацій</t>
+  </si>
+  <si>
+    <t>За підсумками розслідування нещасного випадку, професійного захворювання або аварії роботодавець складає акт за встановленою формою, один примірник якого він зобов'язаний видати потерпілому або іншій заінтересованій особі:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не пізніше трьох днів з моменту закінчення розслідування
+Не пізніше трьох днів з моменту початку розслідування
+Не пізніше трьох днів з моменту настання нещасного випадку
+</t>
+  </si>
+  <si>
+    <t>Не пізніше трьох днів з моменту закінчення розслідування</t>
+  </si>
+  <si>
+    <t>Тривалість робочого тижня для дорослих складає:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 годин
+36 годин
+42 годин
+40 годин
+</t>
+  </si>
+  <si>
+    <t>40 годин</t>
+  </si>
+  <si>
+    <t>Якими нормативними документами встановлені гранично допустимі концентрації (ГДК) хімічних речовин ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Будівельними нормами
+Санітарними нормами
+КЗпП
+</t>
+  </si>
+  <si>
+    <t>Санітарними нормами</t>
+  </si>
+  <si>
+    <t>При якій мінімальній кількості постраждалих нещасний випадок вважається груповим?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двоє постраждалих з смертельними наслідками
+Троє постраждалих
+Двоє постраждалих
+Троє постраждалих з тяжкими наслідками
+</t>
+  </si>
+  <si>
+    <t>Двоє постраждалих</t>
+  </si>
+  <si>
+    <t>Фонд соціального страхування від нещасних випадків здійснює заходи, спрямовані на:</t>
+  </si>
+  <si>
+    <t>Що означають останні дві цифри в державних нормативних актах з охорони праці (ДНАОП)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорочена назва нормативного акту
+державний орган, що затвердив акт
+вид державного нормативного акту
+рік затвердження акту
+порядковий номер акту
+</t>
+  </si>
+  <si>
+    <t>рік затвердження акту</t>
+  </si>
+  <si>
+    <t>Яким нормативним актом чи актами регулюється порядок розслідування нещасних випадків на виробництві?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Положенням про розслідування та облік нещасних випадків, професійних захворювань та аварій
+КЗпП
+Положенням “Про медичний огляд”
+Законом України “Про загальнообов’язкове соціальне страхування від нещасного випадку, які спричинили втрату працездатності”
+</t>
+  </si>
+  <si>
+    <t>Положенням про розслідування та облік нещасних випадків, професійних захворювань та аварій</t>
   </si>
 </sst>
 </file>
@@ -956,117 +957,117 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
